--- a/data_craw/quarter/income_statement_quarter/vcb.xlsx
+++ b/data_craw/quarter/income_statement_quarter/vcb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>974695000000</v>
+        <v>700020000000</v>
       </c>
       <c r="C4" t="n">
-        <v>396225000000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1144844000000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>466742000000</v>
-      </c>
-      <c r="F4" t="n">
-        <v>700020000000</v>
-      </c>
-      <c r="G4" t="n">
         <v>233108000000</v>
       </c>
-      <c r="H4" t="n">
-        <v>1136573000000</v>
-      </c>
-      <c r="I4" t="n">
-        <v>505430000000</v>
-      </c>
-      <c r="J4" t="n">
-        <v>652774000000</v>
-      </c>
-      <c r="K4" t="n">
-        <v>805593000000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>576253000000</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1013546000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>616998000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>721538000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1444875000000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>626392000000</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -628,53 +600,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91295000000</v>
+        <v>160358000000</v>
       </c>
       <c r="C5" t="n">
-        <v>143763000000</v>
-      </c>
-      <c r="D5" t="n">
-        <v>105617000000</v>
-      </c>
-      <c r="E5" t="n">
-        <v>180865000000</v>
-      </c>
-      <c r="F5" t="n">
-        <v>160358000000</v>
-      </c>
-      <c r="G5" t="n">
         <v>297621000000</v>
       </c>
-      <c r="H5" t="n">
-        <v>124204000000</v>
-      </c>
-      <c r="I5" t="n">
-        <v>145887000000</v>
-      </c>
-      <c r="J5" t="n">
-        <v>201077000000</v>
-      </c>
-      <c r="K5" t="n">
-        <v>235941000000</v>
-      </c>
-      <c r="L5" t="n">
-        <v>92295000000</v>
-      </c>
-      <c r="M5" t="n">
-        <v>132605000000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>227533000000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>421945000000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>362100000000</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>368253000000</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -706,53 +650,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5051595000000</v>
+        <v>3995811000000</v>
       </c>
       <c r="C7" t="n">
-        <v>4400374000000</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4182655000000</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4615185000000</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3995811000000</v>
-      </c>
-      <c r="G7" t="n">
         <v>5673803000000</v>
       </c>
-      <c r="H7" t="n">
-        <v>6907522000000</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3960100000000</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4599288000000</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6456800000000</v>
-      </c>
-      <c r="L7" t="n">
-        <v>7967426000000</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5941931000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6069444000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>9933519000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>8991901000000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>7427958000000</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -761,53 +677,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3253000000</v>
+        <v>4908000000</v>
       </c>
       <c r="C8" t="n">
-        <v>3061000000</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4740000000</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5275000000</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4908000000</v>
-      </c>
-      <c r="G8" t="n">
         <v>6284000000</v>
       </c>
-      <c r="H8" t="n">
-        <v>4944000000</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4569000000</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5158000000</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5561000000</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5242000000</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4977000000</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4574000000</v>
-      </c>
-      <c r="O8" t="n">
-        <v>5242000000</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5466000000</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5135000000</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -816,53 +704,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1361</v>
+        <v>1076</v>
       </c>
       <c r="C9" t="n">
-        <v>1186</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1129</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1246</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1076</v>
-      </c>
-      <c r="G9" t="n">
         <v>1528</v>
       </c>
-      <c r="H9" t="n">
-        <v>1861</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1067</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1239</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1739</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1682</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1255</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1282</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2098</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1899</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1568</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
